--- a/assets/template/year.xlsx
+++ b/assets/template/year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B28453-5219-4DB6-94BA-336DB1CC24C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5334CAB5-79E0-4A14-9AF6-5D529A6300DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,6 +435,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -482,12 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,7 +910,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -926,23 +926,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -953,50 +953,50 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1004,8 +1004,8 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1017,26 +1017,26 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1217,7 +1217,7 @@
   <pageMargins left="0.5" right="0.44" top="0.5" bottom="0.55000000000000004" header="0.5" footer="0.32"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Bold"Ref. No.: 030030.14/05&amp;RPage &amp;P / &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Bold"Ref. No.: 030030.15/05&amp;RPage &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/assets/template/year.xlsx
+++ b/assets/template/year.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\qc\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\qc\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5334CAB5-79E0-4A14-9AF6-5D529A6300DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Hằng năm" sheetId="4" r:id="rId1"/>
@@ -206,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -492,7 +491,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{F4FB742F-C0E1-4E46-8E73-BA133C760180}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,85 +504,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>83654</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F4A4C5-B339-4E25-8C3E-A9ACD2D74A26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9525"/>
-          <a:ext cx="2076450" cy="386715"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,23 +582,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -714,23 +617,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -906,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F23F15A-C652-4A47-B60B-9D061017DF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1219,6 +1105,5 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Bold"Ref. No.: 030030.15/05&amp;RPage &amp;P / &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>